--- a/biology/Zoologie/Agamodon/Agamodon.xlsx
+++ b/biology/Zoologie/Agamodon/Agamodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agamodon est un genre d'amphisbènes de la famille des Trogonophiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois espèces de ce genre se rencontrent au Yémen et en Somalie.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont des lézards apodes (sans pattes), ovipares, ayant un mode de vie fouisseur.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (20 juil. 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (20 juil. 2011) :
 Agamodon anguliceps Peters, 1882
 Agamodon arabicus Anderson, 1901
 Agamodon compressus Mocquard, 1888</t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1882 : Über eine neue Art und Gattung der Amphisbaenoiden, Agamodon anguliceps, mit eingewachsenen Zähnen, aus Barava (Ostafrica) und über die zu den Trogonophides gehörigen Gattungen. Sitzungsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1882, p. 579-584 (texte intégral).</t>
         </is>
